--- a/srv/src/main/resources/template/支払通知照会.xlsx
+++ b/srv/src/main/resources/template/支払通知照会.xlsx
@@ -35,34 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>買掛金計上高明細表</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>{INV_MONTH_FORMATTED}月度買掛金計上高明細表</t>
+  </si>
+  <si>
+    <t>{SUPPLIER_DESCRIPTION}</t>
   </si>
   <si>
     <t>御中</t>
   </si>
   <si>
-    <t>登録番号</t>
+    <t>登録番号:{LOG_NO}</t>
   </si>
   <si>
     <t>{Company_Name}</t>
@@ -71,37 +55,58 @@
     <t>通貨:JPY</t>
   </si>
   <si>
-    <t>発行日：</t>
-  </si>
-  <si>
-    <t>{CURRENT_DAY}</t>
+    <t>発行日:{CURRENT_DAY}</t>
   </si>
   <si>
     <t>仕入金額計(8%対象)</t>
   </si>
   <si>
+    <t>{TOTAL_PRICE_AMOUNT_8}</t>
+  </si>
+  <si>
     <t>消費税計(8%対象)</t>
   </si>
   <si>
+    <t>{CONSUMPTION_TAX_8}</t>
+  </si>
+  <si>
     <t>税込支払金額(8%対象)</t>
   </si>
   <si>
+    <t>{TOTAL_PAYMENT_AMOUNT_8_END}</t>
+  </si>
+  <si>
     <t>仕入金額計(10%対象)</t>
   </si>
   <si>
+    <t>{TOTAL_PRICE_AMOUNT_10}</t>
+  </si>
+  <si>
     <t>消費税計(10%対象)</t>
   </si>
   <si>
+    <t>{CONSUMPTION_TAX_10}</t>
+  </si>
+  <si>
     <t>※送付後一定期間内に誤りのある旨の連絡がない場合には記載内容のとおり確認があったものとする</t>
   </si>
   <si>
     <t>税込支払金額(10%対象)</t>
   </si>
   <si>
+    <t>{TOTAL_PAYMENT_AMOUNT_10_END}</t>
+  </si>
+  <si>
     <t>対象外金額</t>
   </si>
   <si>
+    <t>{NON_APPLICABLE_AMOUNT}</t>
+  </si>
+  <si>
     <t>総合計</t>
+  </si>
+  <si>
+    <t>{TOTAL_PAYMENT_AMOUNT_FINAL}</t>
   </si>
   <si>
     <t>※は軽減税率対象</t>
@@ -1066,38 +1071,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="61" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" xfId="61" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" xfId="61" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="61" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="61" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="6" xfId="61" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="6" xfId="61" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="61" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="61" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="61" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="61" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="10" xfId="61" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="10" xfId="61" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="61" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="12" xfId="61" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="12" xfId="61" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="61" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1516,7 +1521,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1535,19 +1540,23 @@
     <col min="12" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:3">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="18" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -1556,17 +1565,14 @@
     </row>
     <row r="6" spans="7:7">
       <c r="G6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="14.55" spans="3:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="14.55" spans="3:7">
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1574,120 +1580,136 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" ht="14.55" spans="2:3">
       <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="2:3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="14.55" spans="2:3">
       <c r="B11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="14.55" spans="2:3">
       <c r="B13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" ht="15.3" spans="2:3">
       <c r="B14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" ht="15.3" spans="2:3">
       <c r="B15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" ht="14.55" spans="2:2">
+        <v>22</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="18" spans="2:11">

--- a/srv/src/main/resources/template/支払通知照会.xlsx
+++ b/srv/src/main/resources/template/支払通知照会.xlsx
@@ -133,7 +133,7 @@
     <t>基準通貨金額税抜</t>
   </si>
   <si>
-    <t>消費税率</t>
+    <t>消費税率(%)</t>
   </si>
   <si>
     <t>備考</t>
@@ -1521,7 +1521,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1643,7 +1643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" ht="14.55" spans="2:2">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>

--- a/srv/src/main/resources/template/支払通知照会.xlsx
+++ b/srv/src/main/resources/template/支払通知照会.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>{INV_MONTH_FORMATTED}月度買掛金計上高明細表</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>{CONSUMPTION_TAX_10}</t>
-  </si>
-  <si>
-    <t>※送付後一定期間内に誤りのある旨の連絡がない場合には記載内容のとおり確認があったものとする</t>
   </si>
   <si>
     <t>税込支払金額(10%対象)</t>
@@ -1521,7 +1518,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1608,108 +1605,105 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:3">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="13" ht="14.55" spans="2:3">
       <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" ht="15.3" spans="2:3">
       <c r="B14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" ht="15.3" spans="2:3">
       <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" ht="14.55" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="I19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="J19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="K19" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" ht="18" spans="2:11">
